--- a/DataRepo/data/tests/isoautocorr/test-isoautocorr-study/test-isoautocorr-studydoc.xlsx
+++ b/DataRepo/data/tests/isoautocorr/test-isoautocorr-study/test-isoautocorr-studydoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Animals" sheetId="1" state="visible" r:id="rId2"/>
@@ -510,7 +510,7 @@
     <t xml:space="preserve">Collection Time</t>
   </si>
   <si>
-    <t xml:space="preserve">His-neg-M3-T02-liv</t>
+    <t xml:space="preserve">His_neg_M3_T02_liv</t>
   </si>
   <si>
     <t xml:space="preserve">Michael Neinast</t>
@@ -519,19 +519,19 @@
     <t xml:space="preserve">liver</t>
   </si>
   <si>
-    <t xml:space="preserve">His-neg-M3-T03-kid</t>
+    <t xml:space="preserve">His_neg_M3_T03_kid</t>
   </si>
   <si>
     <t xml:space="preserve">kidney</t>
   </si>
   <si>
-    <t xml:space="preserve">His-neg-M3-T22-serum-30m</t>
+    <t xml:space="preserve">His_neg_M3_T22_serum_30m</t>
   </si>
   <si>
     <t xml:space="preserve">serum_plasma_tail</t>
   </si>
   <si>
-    <t xml:space="preserve">His-neg-M3-T22-serum-120m</t>
+    <t xml:space="preserve">His_neg_M3_T22_serum_120m</t>
   </si>
   <si>
     <t xml:space="preserve">Treatment Description</t>
@@ -670,8 +670,8 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -793,8 +793,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
